--- a/Data/EC/NIT-9010370711.xlsx
+++ b/Data/EC/NIT-9010370711.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2673A02-458D-47EB-A145-F5989EC3917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79003302-7591-4A31-9C06-406B53ADCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{925552E0-99F6-4F38-80F5-2E969D4B8214}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C11987C-4C48-493B-BF0B-BDD282A24AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,88 +65,88 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047416489</t>
+  </si>
+  <si>
+    <t>YENIS MARCELA RICO PEREZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>80748280</t>
+  </si>
+  <si>
+    <t>YECID CARDONA QUICENO</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>79403942</t>
   </si>
   <si>
     <t>JAIRO BAEZ SUAREZ</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>80748280</t>
-  </si>
-  <si>
-    <t>YECID CARDONA QUICENO</t>
-  </si>
-  <si>
-    <t>1047416489</t>
-  </si>
-  <si>
-    <t>YENIS MARCELA RICO PEREZ</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50BE98C-6262-91C4-C9FF-C2B594D825F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E1BA79-686D-62E4-1BAC-0999C0D77EEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,28 +911,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED46740-9B87-4EE7-801B-DF5AA7FBB190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A7EBF6-24CB-49F3-9F39-CFE16A198AAA}">
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -945,7 +945,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -956,7 +956,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -967,7 +967,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -978,8 +978,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1010,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1026,8 +1026,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>40</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1089,16 +1089,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>18689</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1109,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1121,30 +1121,30 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>18689</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1167,21 +1167,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1190,21 +1190,21 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1213,7 +1213,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1224,10 +1224,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1236,7 +1236,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1247,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1259,18 +1259,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>29509</v>
@@ -1282,7 +1282,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1305,18 +1305,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
@@ -1328,7 +1328,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1351,18 +1351,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
@@ -1374,18 +1374,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1397,7 +1397,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
@@ -1420,7 +1420,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
@@ -1443,18 +1443,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
@@ -1466,18 +1466,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1489,7 +1489,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1512,7 +1512,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1535,18 +1535,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1558,18 +1558,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
@@ -1581,7 +1581,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>29509</v>
@@ -1604,21 +1604,21 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1627,21 +1627,21 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1650,21 +1650,21 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1673,21 +1673,21 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1696,21 +1696,21 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1719,21 +1719,21 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1742,21 +1742,21 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1765,18 +1765,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
@@ -1788,21 +1788,21 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1811,21 +1811,21 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1834,21 +1834,21 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1857,21 +1857,21 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1880,21 +1880,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1903,21 +1903,21 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1926,21 +1926,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1949,21 +1949,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -1972,21 +1972,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -1995,21 +1995,21 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2018,21 +2018,21 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2041,21 +2041,21 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2064,21 +2064,21 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2087,21 +2087,21 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F60" s="24">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="24">
         <v>781242</v>
@@ -2110,7 +2110,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="26"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="32" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2121,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="32" t="s">
         <v>45</v>
       </c>

--- a/Data/EC/NIT-9010370711.xlsx
+++ b/Data/EC/NIT-9010370711.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79003302-7591-4A31-9C06-406B53ADCA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3731F4E-32DA-4151-8A02-E4134BD5014B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C11987C-4C48-493B-BF0B-BDD282A24AB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE0A9CC7-18EE-4D02-A970-D8B599EBB574}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,73 +80,73 @@
     <t>YECID CARDONA QUICENO</t>
   </si>
   <si>
+    <t>79403942</t>
+  </si>
+  <si>
+    <t>JAIRO BAEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>79403942</t>
-  </si>
-  <si>
-    <t>JAIRO BAEZ SUAREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +245,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +460,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +504,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E1BA79-686D-62E4-1BAC-0999C0D77EEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238850DD-047E-6194-0C43-5E84330E77E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,28 +911,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A7EBF6-24CB-49F3-9F39-CFE16A198AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB151F91-6E17-4EF4-8A3B-BBF8F27962AB}">
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -945,7 +945,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -956,7 +956,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -967,7 +967,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -978,8 +978,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1010,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1026,8 +1026,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>40</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1109,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1121,21 +1121,21 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1144,7 +1144,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1167,21 +1167,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1190,7 +1190,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1201,10 +1201,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1213,21 +1213,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1236,7 +1236,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1247,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1259,18 +1259,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
         <v>29509</v>
@@ -1282,7 +1282,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1305,18 +1305,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
@@ -1328,7 +1328,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1351,18 +1351,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
@@ -1374,7 +1374,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1397,18 +1397,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
@@ -1420,7 +1420,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
@@ -1443,18 +1443,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>29509</v>
@@ -1466,7 +1466,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1489,18 +1489,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1512,7 +1512,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1535,18 +1535,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1558,7 +1558,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
@@ -1581,18 +1581,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>29509</v>
@@ -1604,21 +1604,21 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1627,21 +1627,21 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1650,21 +1650,21 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1673,21 +1673,21 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1696,21 +1696,21 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1719,21 +1719,21 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1742,21 +1742,21 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1765,18 +1765,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
@@ -1788,21 +1788,21 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1811,21 +1811,21 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1834,21 +1834,21 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1857,21 +1857,21 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1880,21 +1880,21 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1903,21 +1903,21 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -1926,21 +1926,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1949,21 +1949,21 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -1972,21 +1972,21 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -1995,21 +1995,21 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2018,21 +2018,21 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2041,21 +2041,21 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2064,21 +2064,21 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2087,21 +2087,21 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D60" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="F60" s="24">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G60" s="24">
         <v>781242</v>
@@ -2110,7 +2110,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="26"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="32" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2121,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="32" t="s">
         <v>45</v>
       </c>
